--- a/biology/Botanique/Träumerei/Träumerei.xlsx
+++ b/biology/Botanique/Träumerei/Träumerei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tr%C3%A4umerei</t>
+          <t>Träumerei</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Träumerei' est un cultivar de rosier floribunda issu de la maison Kordes en 1974[1]. Il doit son nom au morceau de piano de Robert Schumann intitulé Träumerei (« Rêverie » en français) dans les Scènes d'enfants (Kinderszenen), œuvre composée en 1838.
+'Träumerei' est un cultivar de rosier floribunda issu de la maison Kordes en 1974. Il doit son nom au morceau de piano de Robert Schumann intitulé Träumerei (« Rêverie » en français) dans les Scènes d'enfants (Kinderszenen), œuvre composée en 1838.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tr%C3%A4umerei</t>
+          <t>Träumerei</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce petit rosier au port compact, érigé et bien ramifié, mesure de 60 cm à 80 cm de hauteur. Son feuillage est vert foncé. Ses fleurs doubles d'un bel orange corail mesurent 8 à 9 cm de diamètre. Elles sont solitaires ou en bouquets de trois à huit. Elles possèdent de dix-sept à vingt-cinq pétales et sont relativement parfumées[2]. Elles fleurissent de la fin du printemps à l'automne.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce petit rosier au port compact, érigé et bien ramifié, mesure de 60 cm à 80 cm de hauteur. Son feuillage est vert foncé. Ses fleurs doubles d'un bel orange corail mesurent 8 à 9 cm de diamètre. Elles sont solitaires ou en bouquets de trois à huit. Elles possèdent de dix-sept à vingt-cinq pétales et sont relativement parfumées. Elles fleurissent de la fin du printemps à l'automne.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tr%C3%A4umerei</t>
+          <t>Träumerei</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La zone de rusticité (USDA) de 'Träumerei' est de 6b à moins froid. Ce rosier est moyennement sensible à la maladie des taches noires, tandis que les fleurs résistent à la pluie[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La zone de rusticité (USDA) de 'Träumerei' est de 6b à moins froid. Ce rosier est moyennement sensible à la maladie des taches noires, tandis que les fleurs résistent à la pluie,.
 Il a donné naissance à un rosier miniature, 'Zwergenfee' (Kordes 1979).
 </t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tr%C3%A4umerei</t>
+          <t>Träumerei</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Ascendance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon les données du site HelpMeFind.com[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon les données du site HelpMeFind.com :
 </t>
         </is>
       </c>
